--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -330,6 +345,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -418,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,6 +448,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,245 +470,284 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -711,2285 +769,2630 @@
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato morto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato morto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -770,2629 +773,2629 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -350,7 +353,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -439,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,7 +454,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -571,13 +574,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -594,7 +597,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -617,13 +620,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -640,7 +643,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -663,7 +666,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -686,7 +689,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -709,7 +712,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -732,7 +735,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -754,2648 +757,2671 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>32</v>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1425,22 +1431,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>33</v>
@@ -1448,22 +1454,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>33</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,22 +1592,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>33</v>
@@ -1632,22 +1638,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>33</v>
@@ -1655,22 +1661,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1678,22 +1684,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,22 +1776,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1862,22 +1868,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>33</v>
@@ -1885,22 +1891,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1934,16 +1940,16 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1957,7 +1963,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
@@ -1966,7 +1972,7 @@
         <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2440,16 +2446,16 @@
         <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2463,7 +2469,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
@@ -2472,7 +2478,7 @@
         <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2486,16 +2492,16 @@
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2506,10 +2512,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2518,7 +2524,7 @@
         <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2575,16 +2581,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>99</v>
@@ -2598,10 +2604,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2610,7 +2616,7 @@
         <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2673,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2771,7 +2777,7 @@
         <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2794,7 +2800,7 @@
         <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2805,10 +2811,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2817,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2828,599 +2834,691 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -359,7 +359,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -460,7 +463,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3412,7 +3415,7 @@
         <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3432,19 +3435,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3458,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>23</v>
@@ -3478,10 +3481,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3490,7 +3493,7 @@
         <v>31</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3501,10 +3504,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3513,7 +3516,7 @@
         <v>96</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3415,7 +3412,7 @@
         <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3435,19 +3432,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3458,19 +3455,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>23</v>
@@ -3481,10 +3478,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3493,7 +3490,7 @@
         <v>31</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3504,10 +3501,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3516,7 +3513,7 @@
         <v>96</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3412,7 +3415,7 @@
         <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3432,19 +3435,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3458,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>23</v>
@@ -3478,10 +3481,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3490,7 +3493,7 @@
         <v>31</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3501,10 +3504,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3513,7 +3516,7 @@
         <v>96</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -451,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -461,7 +491,7 @@
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1986,19 +2016,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2009,22 +2039,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2032,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2055,22 +2085,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2078,22 +2108,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2101,19 +2131,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2223,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2246,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2338,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2361,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2384,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2407,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2430,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2683,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2729,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2752,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2821,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2844,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2867,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2890,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2883,16 +2913,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -2906,622 +2936,944 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="2" t="s">
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -3103,7 +3103,7 @@
         <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>106</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1487,22 +1493,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>33</v>
@@ -1510,22 +1516,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
@@ -1533,19 +1539,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1562,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1585,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1608,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1631,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>33</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
@@ -1717,22 +1723,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1740,22 +1746,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1763,22 +1769,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,22 +1861,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1947,22 +1953,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -1970,22 +1976,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2039,22 +2045,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>20</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2131,22 +2137,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2154,22 +2160,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2712,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2778,7 +2784,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2787,7 +2793,7 @@
         <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2801,16 +2807,16 @@
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2824,16 +2830,16 @@
         <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2844,10 +2850,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2856,7 +2862,7 @@
         <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2913,16 +2919,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -2936,19 +2942,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2965,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2988,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3011,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3212,10 +3218,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3224,7 +3230,7 @@
         <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3235,10 +3241,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3247,7 +3253,7 @@
         <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3258,622 +3264,737 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B147" s="2" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E147" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1516,22 +1522,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>33</v>
@@ -1539,22 +1545,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1562,19 +1568,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1683,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1700,22 +1706,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1723,22 +1729,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1746,22 +1752,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -1792,22 +1798,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1959,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
@@ -1976,22 +1982,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2091,22 +2097,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2143,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>20</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2206,22 +2212,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2603,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2626,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2649,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2764,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2853,7 +2859,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2862,7 +2868,7 @@
         <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2876,16 +2882,16 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2899,16 +2905,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2919,10 +2925,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2931,7 +2937,7 @@
         <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3034,10 +3040,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3046,7 +3052,7 @@
         <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3063,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3310,10 +3316,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3322,7 +3328,7 @@
         <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3333,10 +3339,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3345,7 +3351,7 @@
         <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3356,645 +3362,737 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B152" s="2" t="s">
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1545,22 +1551,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1568,22 +1574,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1643,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,22 +1735,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1752,22 +1758,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1775,22 +1781,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1867,22 +1873,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1913,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>20</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2051,22 +2057,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2074,22 +2080,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,22 +2149,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2235,22 +2241,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2258,22 +2264,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2928,7 +2934,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2937,7 +2943,7 @@
         <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,16 +2957,16 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2974,16 +2980,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2994,10 +3000,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3006,7 +3012,7 @@
         <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3092,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3109,10 +3115,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3121,7 +3127,7 @@
         <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3161,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3276,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3385,10 +3391,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3397,7 +3403,7 @@
         <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3408,10 +3414,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3420,7 +3426,7 @@
         <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3431,668 +3437,760 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G152" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B156" s="2" t="s">
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -209,9 +299,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -299,6 +386,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -350,9 +446,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -410,9 +503,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -441,6 +531,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -499,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -956,22 +1052,22 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -979,22 +1075,22 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1002,22 +1098,22 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1025,22 +1121,22 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1048,22 +1144,22 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1071,22 +1167,22 @@
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1094,22 +1190,22 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1117,22 +1213,22 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1140,22 +1236,22 @@
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1163,22 +1259,22 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1186,22 +1282,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1209,22 +1305,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1232,39 +1328,39 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1275,19 +1371,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1298,19 +1394,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1417,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1440,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1463,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1486,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1509,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1532,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1555,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1578,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1601,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1624,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1647,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1574,22 +1670,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1597,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1716,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1739,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1831,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,22 +1854,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1781,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,22 +1900,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1827,22 +1923,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1850,19 +1946,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,620 +1969,620 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2494,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2655,22 +2751,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2678,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2701,22 +2797,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2724,22 +2820,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2747,19 +2843,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2866,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2793,22 +2889,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2816,22 +2912,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2839,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2862,22 +2958,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2885,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2908,22 +3004,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2931,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,22 +3050,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -2977,22 +3073,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3000,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3119,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3142,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3165,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,22 +3188,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3115,19 +3211,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3138,22 +3234,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3161,22 +3257,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3184,19 +3280,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3207,19 +3303,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3326,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3349,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3372,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3395,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3418,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3441,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3368,19 +3464,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3391,19 +3487,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3510,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3533,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3556,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3579,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3506,617 +3602,617 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4127,22 +4223,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>33</v>
@@ -4150,19 +4246,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4173,24 +4269,944 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="B167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -595,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2294,7 +2294,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2303,7 +2303,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2326,7 +2326,7 @@
         <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2340,7 +2340,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2349,7 +2349,7 @@
         <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2363,7 +2363,7 @@
         <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
         <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2386,7 +2386,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2395,7 +2395,7 @@
         <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,7 +2409,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2418,7 +2418,7 @@
         <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,7 +2432,7 @@
         <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,7 +2455,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2464,7 +2464,7 @@
         <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,7 +2478,7 @@
         <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,7 +2501,7 @@
         <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2510,7 +2510,7 @@
         <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2533,7 +2533,7 @@
         <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,25 +2544,25 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -2570,19 +2570,19 @@
         <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2593,16 +2593,16 @@
         <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,16 +2616,16 @@
         <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2648,7 +2648,7 @@
         <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,7 +2662,7 @@
         <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2671,7 +2671,7 @@
         <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,7 +2685,7 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2694,7 +2694,7 @@
         <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,16 +2708,16 @@
         <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,7 +2731,7 @@
         <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2740,10 +2740,10 @@
         <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2754,7 +2754,7 @@
         <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2763,10 +2763,10 @@
         <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2777,7 +2777,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2786,10 +2786,10 @@
         <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2800,7 +2800,7 @@
         <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2809,7 +2809,7 @@
         <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
@@ -2823,19 +2823,19 @@
         <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2846,7 +2846,7 @@
         <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -2855,7 +2855,7 @@
         <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2869,19 @@
         <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2892,7 +2892,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2901,7 @@
         <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
@@ -2915,7 +2915,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2924,10 +2924,10 @@
         <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2938,7 +2938,7 @@
         <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2947,10 +2947,10 @@
         <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2961,7 +2961,7 @@
         <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2970,10 +2970,10 @@
         <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2984,7 +2984,7 @@
         <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2993,10 +2993,10 @@
         <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3007,7 +3007,7 @@
         <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3016,10 +3016,10 @@
         <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3030,7 +3030,7 @@
         <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3039,10 +3039,10 @@
         <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3053,7 +3053,7 @@
         <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3062,7 +3062,7 @@
         <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>20</v>
@@ -3076,19 +3076,19 @@
         <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3099,7 +3099,7 @@
         <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
@@ -3108,7 +3108,7 @@
         <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,7 +3122,7 @@
         <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3131,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,7 +3168,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3177,10 +3177,10 @@
         <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>33</v>
@@ -3191,7 +3191,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3200,10 +3200,10 @@
         <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3214,7 +3214,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3223,10 +3223,10 @@
         <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3237,7 +3237,7 @@
         <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3246,7 +3246,7 @@
         <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>20</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3283,16 +3283,16 @@
         <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,16 +3306,16 @@
         <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,16 +3329,16 @@
         <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,7 +3352,7 @@
         <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -3361,7 +3361,7 @@
         <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,7 +3375,7 @@
         <v>139</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3384,7 +3384,7 @@
         <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,7 +3398,7 @@
         <v>139</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3407,7 +3407,7 @@
         <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,16 +3421,16 @@
         <v>139</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,7 +3444,7 @@
         <v>139</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3453,7 +3453,7 @@
         <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3476,7 +3476,7 @@
         <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,7 +3490,7 @@
         <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3499,7 +3499,7 @@
         <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,7 +3513,7 @@
         <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3522,7 +3522,7 @@
         <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,16 +3536,16 @@
         <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,7 +3559,7 @@
         <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3568,7 +3568,7 @@
         <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,16 +3582,16 @@
         <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,7 +3605,7 @@
         <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3614,7 +3614,7 @@
         <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,7 +3628,7 @@
         <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3637,7 +3637,7 @@
         <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,7 +3651,7 @@
         <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3660,7 +3660,7 @@
         <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,7 +3674,7 @@
         <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3683,7 +3683,7 @@
         <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,7 +3697,7 @@
         <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,7 +3720,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3729,7 +3729,7 @@
         <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3752,7 +3752,7 @@
         <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,7 +3766,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3775,7 +3775,7 @@
         <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,16 +3789,16 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3812,7 +3812,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3821,7 +3821,7 @@
         <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,7 +3835,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3844,7 +3844,7 @@
         <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,16 +3858,16 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,7 +3881,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
@@ -3890,7 +3890,7 @@
         <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,7 +3904,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3913,7 +3913,7 @@
         <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3936,7 +3936,7 @@
         <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,7 +3950,7 @@
         <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3959,7 +3959,7 @@
         <v>140</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3970,19 +3970,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,16 +3996,16 @@
         <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,16 +4019,16 @@
         <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4042,7 +4042,7 @@
         <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4051,7 +4051,7 @@
         <v>64</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,16 +4065,16 @@
         <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4088,16 +4088,16 @@
         <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4111,7 +4111,7 @@
         <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
@@ -4120,7 +4120,7 @@
         <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4134,16 +4134,16 @@
         <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4157,7 +4157,7 @@
         <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
@@ -4166,7 +4166,7 @@
         <v>64</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4180,16 +4180,16 @@
         <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4212,7 +4212,7 @@
         <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4226,16 +4226,16 @@
         <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4249,7 +4249,7 @@
         <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4258,7 +4258,7 @@
         <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4272,7 +4272,7 @@
         <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4281,7 +4281,7 @@
         <v>142</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4295,7 +4295,7 @@
         <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4304,7 +4304,7 @@
         <v>142</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4318,16 +4318,16 @@
         <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4341,16 +4341,16 @@
         <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4364,7 +4364,7 @@
         <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4373,7 +4373,7 @@
         <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4387,7 +4387,7 @@
         <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4396,7 +4396,7 @@
         <v>142</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4410,7 +4410,7 @@
         <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4419,7 +4419,7 @@
         <v>142</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4433,16 +4433,16 @@
         <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4456,7 +4456,7 @@
         <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4465,7 +4465,7 @@
         <v>64</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4476,25 +4476,25 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170">
@@ -4502,19 +4502,19 @@
         <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>162</v>
@@ -4525,16 +4525,16 @@
         <v>159</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4548,16 +4548,16 @@
         <v>159</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4571,7 +4571,7 @@
         <v>159</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -4580,7 +4580,7 @@
         <v>160</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4594,7 +4594,7 @@
         <v>159</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4603,7 +4603,7 @@
         <v>160</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4617,7 +4617,7 @@
         <v>159</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4626,7 +4626,7 @@
         <v>160</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4640,16 +4640,16 @@
         <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4663,7 +4663,7 @@
         <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -4672,10 +4672,10 @@
         <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>162</v>
@@ -4686,7 +4686,7 @@
         <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4695,10 +4695,10 @@
         <v>160</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>162</v>
@@ -4709,7 +4709,7 @@
         <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4718,10 +4718,10 @@
         <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>162</v>
@@ -4732,7 +4732,7 @@
         <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4741,7 +4741,7 @@
         <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>161</v>
@@ -4755,19 +4755,19 @@
         <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>162</v>
@@ -4778,7 +4778,7 @@
         <v>159</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -4787,7 +4787,7 @@
         <v>160</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4801,19 +4801,19 @@
         <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>162</v>
@@ -4824,7 +4824,7 @@
         <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4833,7 +4833,7 @@
         <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>161</v>
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4856,10 +4856,10 @@
         <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>162</v>
@@ -4870,7 +4870,7 @@
         <v>159</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4879,10 +4879,10 @@
         <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>162</v>
@@ -4893,7 +4893,7 @@
         <v>159</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4902,10 +4902,10 @@
         <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>162</v>
@@ -4916,7 +4916,7 @@
         <v>159</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4925,10 +4925,10 @@
         <v>160</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>162</v>
@@ -4939,7 +4939,7 @@
         <v>159</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4948,10 +4948,10 @@
         <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>162</v>
@@ -4962,7 +4962,7 @@
         <v>159</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4971,10 +4971,10 @@
         <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>162</v>
@@ -4985,7 +4985,7 @@
         <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -4994,7 +4994,7 @@
         <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>161</v>
@@ -5008,19 +5008,19 @@
         <v>159</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>162</v>
@@ -5031,7 +5031,7 @@
         <v>159</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
@@ -5040,7 +5040,7 @@
         <v>160</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5054,7 +5054,7 @@
         <v>159</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>17</v>
@@ -5063,7 +5063,7 @@
         <v>160</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5074,25 +5074,25 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196">
@@ -5100,19 +5100,19 @@
         <v>163</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>33</v>
@@ -5123,19 +5123,19 @@
         <v>163</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>33</v>
@@ -5146,16 +5146,16 @@
         <v>163</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5169,44 +5169,21 @@
         <v>163</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -4758,7 +4758,7 @@
         <v>96</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>160</v>
@@ -4781,7 +4781,7 @@
         <v>98</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>160</v>
@@ -4790,7 +4790,7 @@
         <v>99</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>162</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -595,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1627,7 +1639,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1636,7 +1648,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1650,7 +1662,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1659,7 +1671,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1673,7 +1685,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1969,65 +1981,65 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,114 +2556,114 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2659,19 +2671,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2694,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,22 +2740,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2751,22 +2763,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2774,22 +2786,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2797,22 +2809,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2820,19 +2832,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2855,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>20</v>
@@ -2889,22 +2901,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2912,22 +2924,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -2958,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,22 +2993,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -3004,22 +3016,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -3050,22 +3062,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3073,22 +3085,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3096,19 +3108,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,22 +3131,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3142,19 +3154,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3177,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>20</v>
@@ -3188,22 +3200,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>33</v>
@@ -3211,22 +3223,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3234,22 +3246,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3257,19 +3269,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3292,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3303,22 +3315,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3326,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3349,22 +3361,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>33</v>
@@ -3372,22 +3384,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>33</v>
@@ -3395,19 +3407,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3430,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3453,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3476,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3499,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3522,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3545,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3568,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3579,19 +3591,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3602,19 +3614,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3625,19 +3637,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3648,19 +3660,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3671,19 +3683,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3694,19 +3706,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3729,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3740,19 +3752,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3763,19 +3775,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3786,19 +3798,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3809,19 +3821,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3832,19 +3844,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3855,19 +3867,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3878,19 +3890,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3901,19 +3913,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3924,19 +3936,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3947,19 +3959,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3970,19 +3982,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3993,19 +4005,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4016,19 +4028,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4039,19 +4051,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4062,19 +4074,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4085,19 +4097,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4108,19 +4120,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4131,19 +4143,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4154,19 +4166,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4177,19 +4189,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4200,19 +4212,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4223,19 +4235,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4246,19 +4258,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4269,19 +4281,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4292,19 +4304,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4315,10 +4327,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
@@ -4327,7 +4339,7 @@
         <v>64</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4338,19 +4350,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4361,19 +4373,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4384,19 +4396,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4407,19 +4419,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4430,19 +4442,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4453,19 +4465,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4476,600 +4488,600 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
@@ -5077,22 +5089,22 @@
         <v>163</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E195" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="196">
@@ -5100,22 +5112,22 @@
         <v>163</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G196" s="2" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197">
@@ -5123,22 +5135,22 @@
         <v>163</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198">
@@ -5146,22 +5158,22 @@
         <v>163</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
@@ -5169,21 +5181,251 @@
         <v>163</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>33</v>
       </c>
     </row>
